--- a/experiments/finished exp/adults-all-exp/dss-groups-metadata.xlsx
+++ b/experiments/finished exp/adults-all-exp/dss-groups-metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Chercheurs\Santos_Manuela\Thibault M\gut-microbiota-iron\experiments\finished exp\adults-all-exp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7427EC4-2041-4C71-B1CA-9D0E56165B3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE77344-2884-4554-8EA5-0CE0C7F64E99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7380" xr2:uid="{60C5D3A9-AAF7-411F-AF65-4E6D18AE5E2A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="84">
   <si>
     <t>Cage</t>
   </si>
@@ -265,6 +265,18 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>body weight</t>
+  </si>
+  <si>
+    <t>colon length</t>
+  </si>
+  <si>
+    <t>liver weight</t>
+  </si>
+  <si>
+    <t>spleen weight</t>
   </si>
 </sst>
 </file>
@@ -370,15 +382,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -394,15 +415,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,15 +731,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90ADBDC-5CF5-4E97-A89A-7A13ADACDB13}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -741,1023 +755,1801 @@
       <c r="E1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="13">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12">
-        <v>50</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="7">
+        <v>50</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2" t="s">
+      <c r="F2" s="1">
+        <v>26.2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.3522000000000001</v>
+      </c>
+      <c r="I2" s="1">
+        <v>8.5599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="12">
-        <v>50</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="7">
+        <v>50</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="1">
+      <c r="F3" s="1">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.0921000000000001</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.1011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="13">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="12">
-        <v>50</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="7">
+        <v>50</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="10" t="s">
+      <c r="F4" s="1">
+        <v>23.8</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.1913</v>
+      </c>
+      <c r="I4" s="1">
+        <v>9.7299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="12">
-        <v>50</v>
-      </c>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="7">
+        <v>50</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="1">
+      <c r="F5" s="1">
+        <v>22.7</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.2216</v>
+      </c>
+      <c r="I5" s="1">
+        <v>9.2399999999999996E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="13">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="12">
-        <v>50</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="7">
+        <v>50</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2" t="s">
+      <c r="F6" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.0893999999999999</v>
+      </c>
+      <c r="I6" s="1">
+        <v>8.2299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="12">
-        <v>50</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="7">
+        <v>50</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="1">
+      <c r="F7" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.94869999999999999</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.12709999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="13">
         <v>4</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="12">
-        <v>50</v>
-      </c>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="7">
+        <v>50</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2" t="s">
+      <c r="F8" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.0831</v>
+      </c>
+      <c r="I8" s="1">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="12">
-        <v>50</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="7">
+        <v>50</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="1">
+      <c r="F9" s="1">
+        <v>23.9</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.0348999999999999</v>
+      </c>
+      <c r="I9" s="1">
+        <v>8.4599999999999995E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="13">
         <v>5</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="12">
-        <v>50</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="D10" s="7">
+        <v>50</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="10" t="s">
+      <c r="F10" s="1">
+        <v>25.8</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.254</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.1065</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="12">
-        <v>50</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="D11" s="7">
+        <v>50</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="1">
+      <c r="F11" s="1">
+        <v>23.9</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.0722</v>
+      </c>
+      <c r="I11" s="1">
+        <v>8.1199999999999994E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="13">
         <v>6</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="12">
-        <v>50</v>
-      </c>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="7">
+        <v>50</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2" t="s">
+      <c r="F12" s="1">
+        <v>25.7</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.3306</v>
+      </c>
+      <c r="I12" s="1">
+        <v>9.6600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="12">
-        <v>50</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="D13" s="7">
+        <v>50</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="1">
+      <c r="F13" s="1">
+        <v>23.4</v>
+      </c>
+      <c r="G13" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.1783999999999999</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="13">
         <v>7</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="12">
-        <v>500</v>
-      </c>
-      <c r="E14" s="13" t="s">
+      <c r="D14" s="7">
+        <v>500</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2" t="s">
+      <c r="F14" s="1">
+        <v>23.2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.1281000000000001</v>
+      </c>
+      <c r="I14" s="1">
+        <v>9.9400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="12">
-        <v>500</v>
-      </c>
-      <c r="E15" s="13" t="s">
+      <c r="D15" s="7">
+        <v>500</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="1">
+      <c r="F15" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="G15" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1.2139</v>
+      </c>
+      <c r="I15" s="1">
+        <v>9.1700000000000004E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="13">
         <v>8</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="12">
-        <v>500</v>
-      </c>
-      <c r="E16" s="14" t="s">
+      <c r="D16" s="7">
+        <v>500</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="10" t="s">
+      <c r="F16" s="1">
+        <v>23</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.0528</v>
+      </c>
+      <c r="I16" s="1">
+        <v>7.6499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="12">
-        <v>500</v>
-      </c>
-      <c r="E17" s="14" t="s">
+      <c r="D17" s="7">
+        <v>500</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="1">
+      <c r="F17" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1.1758</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.1067</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="13">
         <v>9</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="12">
-        <v>500</v>
-      </c>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="7">
+        <v>500</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2" t="s">
+      <c r="F18" s="1">
+        <v>28</v>
+      </c>
+      <c r="G18" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.3264</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.11990000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="12">
-        <v>500</v>
-      </c>
-      <c r="E19" s="13" t="s">
+      <c r="D19" s="7">
+        <v>500</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="1">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="13">
         <v>10</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="12">
-        <v>500</v>
-      </c>
-      <c r="E20" s="13" t="s">
+      <c r="D20" s="7">
+        <v>500</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="2" t="s">
+      <c r="F20" s="1">
+        <v>26.8</v>
+      </c>
+      <c r="G20" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1.2887</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.1134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="12">
-        <v>500</v>
-      </c>
-      <c r="E21" s="13" t="s">
+      <c r="D21" s="7">
+        <v>500</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="1">
+      <c r="F21" s="1">
+        <v>23.2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.17730000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="13">
         <v>11</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="12">
-        <v>500</v>
-      </c>
-      <c r="E22" s="14" t="s">
+      <c r="D22" s="7">
+        <v>500</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="10" t="s">
+      <c r="F22" s="1">
+        <v>26</v>
+      </c>
+      <c r="G22" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1.1347</v>
+      </c>
+      <c r="I22" s="1">
+        <v>8.3099999999999993E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="12">
-        <v>500</v>
-      </c>
-      <c r="E23" s="14" t="s">
+      <c r="D23" s="7">
+        <v>500</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="1">
+      <c r="F23" s="1">
+        <v>26.6</v>
+      </c>
+      <c r="G23" s="1">
+        <v>6</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1.2181</v>
+      </c>
+      <c r="I23" s="1">
+        <v>8.7900000000000006E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="13">
         <v>12</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="12">
-        <v>500</v>
-      </c>
-      <c r="E24" s="13" t="s">
+      <c r="D24" s="7">
+        <v>500</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="2" t="s">
+      <c r="F24" s="1">
+        <v>25.7</v>
+      </c>
+      <c r="G24" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1.4915</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.1153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="12">
-        <v>500</v>
-      </c>
-      <c r="E25" s="13" t="s">
+      <c r="D25" s="7">
+        <v>500</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="F25" s="1">
+        <v>23.3</v>
+      </c>
+      <c r="G25" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1.0351999999999999</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.1062</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="2">
         <v>13</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="12">
-        <v>50</v>
-      </c>
-      <c r="E26" s="12" t="s">
+      <c r="D26" s="7">
+        <v>50</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="2" t="s">
+      <c r="F26" s="18">
+        <v>23.8</v>
+      </c>
+      <c r="G26" s="18">
+        <v>5.3</v>
+      </c>
+      <c r="H26" s="18">
+        <v>1.1229</v>
+      </c>
+      <c r="I26" s="18">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="12">
-        <v>50</v>
-      </c>
-      <c r="E27" s="12" t="s">
+      <c r="D27" s="7">
+        <v>50</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="4">
+      <c r="F27" s="19">
+        <v>21.6</v>
+      </c>
+      <c r="G27" s="19">
+        <v>5.8</v>
+      </c>
+      <c r="H27" s="19">
+        <v>0.58530000000000004</v>
+      </c>
+      <c r="I27" s="19">
+        <v>9.3700000000000006E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="2">
         <v>14</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="12">
-        <v>50</v>
-      </c>
-      <c r="E28" s="15" t="s">
+      <c r="D28" s="7">
+        <v>50</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="10" t="s">
+      <c r="F28" s="18">
+        <v>20.8</v>
+      </c>
+      <c r="G28" s="18">
+        <v>5.3</v>
+      </c>
+      <c r="H28" s="18">
+        <v>1.1012</v>
+      </c>
+      <c r="I28" s="18">
+        <v>6.9599999999999995E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="12">
-        <v>50</v>
-      </c>
-      <c r="E29" s="16" t="s">
+      <c r="D29" s="7">
+        <v>50</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="4">
+      <c r="F29" s="19">
+        <v>25.6</v>
+      </c>
+      <c r="G29" s="19">
+        <v>5.3</v>
+      </c>
+      <c r="H29" s="19">
+        <v>1.2788999999999999</v>
+      </c>
+      <c r="I29" s="19">
+        <v>8.9899999999999994E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="2">
         <v>15</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="12">
-        <v>50</v>
-      </c>
-      <c r="E30" s="17" t="s">
+      <c r="D30" s="7">
+        <v>50</v>
+      </c>
+      <c r="E30" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="2" t="s">
+      <c r="F30" s="18">
+        <v>26.5</v>
+      </c>
+      <c r="G30" s="18">
+        <v>6</v>
+      </c>
+      <c r="H30" s="18">
+        <v>1.42</v>
+      </c>
+      <c r="I30" s="18">
+        <v>7.9799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="12">
-        <v>50</v>
-      </c>
-      <c r="E31" s="17" t="s">
+      <c r="D31" s="7">
+        <v>50</v>
+      </c>
+      <c r="E31" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="4">
+      <c r="F31" s="19">
+        <v>25.7</v>
+      </c>
+      <c r="G31" s="19">
+        <v>5.8</v>
+      </c>
+      <c r="H31" s="19">
+        <v>1.3462000000000001</v>
+      </c>
+      <c r="I31" s="19">
+        <v>9.9599999999999994E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="2">
         <v>16</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="12">
-        <v>50</v>
-      </c>
-      <c r="E32" s="17" t="s">
+      <c r="D32" s="7">
+        <v>50</v>
+      </c>
+      <c r="E32" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="2" t="s">
+      <c r="F32" s="18">
+        <v>24.6</v>
+      </c>
+      <c r="G32" s="18">
+        <v>5.6</v>
+      </c>
+      <c r="H32" s="18">
+        <v>1.1964999999999999</v>
+      </c>
+      <c r="I32" s="18">
+        <v>0.1108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="12">
-        <v>50</v>
-      </c>
-      <c r="E33" s="17" t="s">
+      <c r="D33" s="7">
+        <v>50</v>
+      </c>
+      <c r="E33" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="4">
+      <c r="F33" s="19">
+        <v>24.5</v>
+      </c>
+      <c r="G33" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="H33" s="19">
+        <v>1.2259</v>
+      </c>
+      <c r="I33" s="19">
+        <v>0.13239999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="2">
         <v>17</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="12">
-        <v>50</v>
-      </c>
-      <c r="E34" s="17" t="s">
+      <c r="D34" s="7">
+        <v>50</v>
+      </c>
+      <c r="E34" s="12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="2" t="s">
+      <c r="F34" s="18">
+        <v>28.7</v>
+      </c>
+      <c r="G34" s="18">
+        <v>6</v>
+      </c>
+      <c r="H34" s="18">
+        <v>1.2507999999999999</v>
+      </c>
+      <c r="I34" s="18">
+        <v>0.1003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="12">
-        <v>50</v>
-      </c>
-      <c r="E35" s="17" t="s">
+      <c r="D35" s="7">
+        <v>50</v>
+      </c>
+      <c r="E35" s="12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="4">
+      <c r="F35" s="19">
+        <v>25.8</v>
+      </c>
+      <c r="G35" s="19">
+        <v>5.9</v>
+      </c>
+      <c r="H35" s="19">
+        <v>1.2301</v>
+      </c>
+      <c r="I35" s="19">
+        <v>9.1399999999999995E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="2">
         <v>18</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="12">
-        <v>50</v>
-      </c>
-      <c r="E36" s="16" t="s">
+      <c r="D36" s="7">
+        <v>50</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="10" t="s">
+      <c r="F36" s="18">
+        <v>24</v>
+      </c>
+      <c r="G36" s="18">
+        <v>5.3</v>
+      </c>
+      <c r="H36" s="18">
+        <v>0.68149999999999999</v>
+      </c>
+      <c r="I36" s="18">
+        <v>0.15279999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="12">
-        <v>50</v>
-      </c>
-      <c r="E37" s="16" t="s">
+      <c r="D37" s="7">
+        <v>50</v>
+      </c>
+      <c r="E37" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="4">
+      <c r="F37" s="19">
+        <v>29</v>
+      </c>
+      <c r="G37" s="19">
+        <v>5.9</v>
+      </c>
+      <c r="H37" s="19">
+        <v>1.3462000000000001</v>
+      </c>
+      <c r="I37" s="19">
+        <v>0.1198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="2">
         <v>19</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="12">
-        <v>500</v>
-      </c>
-      <c r="E38" s="17" t="s">
+      <c r="D38" s="7">
+        <v>500</v>
+      </c>
+      <c r="E38" s="12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="2" t="s">
+      <c r="F38" s="18">
+        <v>27.8</v>
+      </c>
+      <c r="G38" s="18">
+        <v>5.4</v>
+      </c>
+      <c r="H38" s="18">
+        <v>1.4923</v>
+      </c>
+      <c r="I38" s="18">
+        <v>0.11070000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="12">
-        <v>500</v>
-      </c>
-      <c r="E39" s="17" t="s">
+      <c r="D39" s="7">
+        <v>500</v>
+      </c>
+      <c r="E39" s="12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="4">
+      <c r="F39" s="19">
+        <v>25.6</v>
+      </c>
+      <c r="G39" s="19">
+        <v>5.6</v>
+      </c>
+      <c r="H39" s="19">
+        <v>1.4044000000000001</v>
+      </c>
+      <c r="I39" s="19">
+        <v>9.11E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="2">
         <v>20</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="12">
-        <v>500</v>
-      </c>
-      <c r="E40" s="17" t="s">
+      <c r="D40" s="7">
+        <v>500</v>
+      </c>
+      <c r="E40" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="2" t="s">
+      <c r="F40" s="18">
+        <v>28.3</v>
+      </c>
+      <c r="G40" s="18">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H40" s="18">
+        <v>1.3628</v>
+      </c>
+      <c r="I40" s="18">
+        <v>0.1043</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="12">
-        <v>500</v>
-      </c>
-      <c r="E41" s="17" t="s">
+      <c r="D41" s="7">
+        <v>500</v>
+      </c>
+      <c r="E41" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="4">
+      <c r="F41" s="19">
+        <v>21.6</v>
+      </c>
+      <c r="G41" s="19">
+        <v>4.2</v>
+      </c>
+      <c r="H41" s="19">
+        <v>1.2216</v>
+      </c>
+      <c r="I41" s="19">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="B42" s="2">
         <v>21</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="12">
-        <v>500</v>
-      </c>
-      <c r="E42" s="16" t="s">
+      <c r="D42" s="7">
+        <v>500</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="10" t="s">
+      <c r="F42" s="18">
+        <v>28.9</v>
+      </c>
+      <c r="G42" s="18">
+        <v>5.3</v>
+      </c>
+      <c r="H42" s="18">
+        <v>1.5327</v>
+      </c>
+      <c r="I42" s="18">
+        <v>9.8500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="12">
-        <v>500</v>
-      </c>
-      <c r="E43" s="16" t="s">
+      <c r="D43" s="7">
+        <v>500</v>
+      </c>
+      <c r="E43" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="4">
+      <c r="F43" s="19">
+        <v>22.7</v>
+      </c>
+      <c r="G43" s="19">
+        <v>6.5</v>
+      </c>
+      <c r="H43" s="19">
+        <v>1.2741</v>
+      </c>
+      <c r="I43" s="19">
+        <v>0.1147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
+      <c r="B44" s="2">
         <v>22</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="12">
-        <v>500</v>
-      </c>
-      <c r="E44" s="16" t="s">
+      <c r="D44" s="7">
+        <v>500</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="10" t="s">
+      <c r="F44" s="18">
+        <v>23.1</v>
+      </c>
+      <c r="G44" s="18">
+        <v>5.3</v>
+      </c>
+      <c r="H44" s="18">
+        <v>1.1834</v>
+      </c>
+      <c r="I44" s="18">
+        <v>7.8700000000000006E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="12">
-        <v>500</v>
-      </c>
-      <c r="E45" s="16" t="s">
+      <c r="D45" s="7">
+        <v>500</v>
+      </c>
+      <c r="E45" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="4">
+      <c r="F45" s="19">
+        <v>24.7</v>
+      </c>
+      <c r="G45" s="19">
+        <v>5.8</v>
+      </c>
+      <c r="H45" s="19">
+        <v>1.502</v>
+      </c>
+      <c r="I45" s="19">
+        <v>9.4899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
+      <c r="B46" s="2">
         <v>23</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="12">
-        <v>500</v>
-      </c>
-      <c r="E46" s="12" t="s">
+      <c r="D46" s="7">
+        <v>500</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="2" t="s">
+      <c r="F46" s="18">
+        <v>23.2</v>
+      </c>
+      <c r="G46" s="18">
+        <v>5.4</v>
+      </c>
+      <c r="H46" s="18">
+        <v>1.2718</v>
+      </c>
+      <c r="I46" s="18">
+        <v>0.1149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="16"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="12">
-        <v>500</v>
-      </c>
-      <c r="E47" s="12" t="s">
+      <c r="D47" s="7">
+        <v>500</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="4">
+      <c r="F47" s="19">
+        <v>23.9</v>
+      </c>
+      <c r="G47" s="19">
+        <v>5.4</v>
+      </c>
+      <c r="H47" s="19">
+        <v>1.1483000000000001</v>
+      </c>
+      <c r="I47" s="19">
+        <v>8.3299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="2">
         <v>24</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="12">
-        <v>500</v>
-      </c>
-      <c r="E48" s="12" t="s">
+      <c r="D48" s="7">
+        <v>500</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="2" t="s">
+      <c r="F48" s="18">
+        <v>24.2</v>
+      </c>
+      <c r="G48" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="H48" s="18">
+        <v>1.3513999999999999</v>
+      </c>
+      <c r="I48" s="18">
+        <v>7.6100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="17"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="12">
-        <v>500</v>
-      </c>
-      <c r="E49" s="12" t="s">
+      <c r="D49" s="7">
+        <v>500</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="F49" s="19">
+        <v>24.4</v>
+      </c>
+      <c r="G49" s="19">
+        <v>5.6</v>
+      </c>
+      <c r="H49" s="19">
+        <v>1.2206999999999999</v>
+      </c>
+      <c r="I49" s="19">
+        <v>8.1699999999999995E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="13">
         <v>1</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="2">
-        <v>50</v>
-      </c>
-      <c r="E50" s="17" t="s">
+      <c r="D50" s="1">
+        <v>50</v>
+      </c>
+      <c r="E50" s="12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="9" t="s">
+      <c r="F50" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="G50" s="1">
+        <v>6.17</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1.3509</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="2">
-        <v>50</v>
-      </c>
-      <c r="E51" s="17" t="s">
+      <c r="D51" s="1">
+        <v>50</v>
+      </c>
+      <c r="E51" s="12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="1">
+      <c r="F51" s="1">
+        <v>24</v>
+      </c>
+      <c r="G51" s="1">
+        <v>6.09</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1.1216999999999999</v>
+      </c>
+      <c r="I51" s="1">
+        <v>7.3899999999999993E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
+      <c r="B52" s="13">
         <v>2</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D52" s="2">
-        <v>50</v>
-      </c>
-      <c r="E52" s="10" t="s">
+      <c r="D52" s="1">
+        <v>50</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="11">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="16"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="6">
         <v>36695</v>
       </c>
-      <c r="D53" s="2">
-        <v>50</v>
-      </c>
-      <c r="E53" s="10" t="s">
+      <c r="D53" s="1">
+        <v>50</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-      <c r="B54" s="1">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="16"/>
+      <c r="B54" s="13">
         <v>3</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="2">
-        <v>50</v>
-      </c>
-      <c r="E54" s="2" t="s">
+      <c r="D54" s="1">
+        <v>50</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="9" t="s">
+      <c r="F54" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="G54" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1.7196</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0.22020000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="16"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D55" s="2">
-        <v>50</v>
-      </c>
-      <c r="E55" s="2" t="s">
+      <c r="D55" s="1">
+        <v>50</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="1">
+      <c r="F55" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="G55" s="1">
+        <v>6.23</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="I55" s="1">
+        <v>8.0699999999999994E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="16"/>
+      <c r="B56" s="13">
         <v>4</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D56" s="2">
-        <v>50</v>
-      </c>
-      <c r="E56" s="2" t="s">
+      <c r="D56" s="1">
+        <v>50</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="9" t="s">
+      <c r="F56" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="G56" s="1">
+        <v>6.03</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1.135</v>
+      </c>
+      <c r="I56" s="1">
+        <v>9.4200000000000006E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="16"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="2">
-        <v>50</v>
-      </c>
-      <c r="E57" s="2" t="s">
+      <c r="D57" s="1">
+        <v>50</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="1">
+      <c r="F57" s="1">
+        <v>29.4</v>
+      </c>
+      <c r="G57" s="1">
+        <v>5.71</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1.5749</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0.1157</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="16"/>
+      <c r="B58" s="13">
         <v>5</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="2">
-        <v>50</v>
-      </c>
-      <c r="E58" s="10" t="s">
+      <c r="D58" s="1">
+        <v>50</v>
+      </c>
+      <c r="E58" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="11">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="16"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="6">
         <v>36801</v>
       </c>
-      <c r="D59" s="2">
-        <v>50</v>
-      </c>
-      <c r="E59" s="10" t="s">
+      <c r="D59" s="1">
+        <v>50</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-      <c r="B60" s="1">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="16"/>
+      <c r="B60" s="13">
         <v>6</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D60" s="2">
-        <v>50</v>
-      </c>
-      <c r="E60" s="2" t="s">
+      <c r="D60" s="1">
+        <v>50</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="9" t="s">
+      <c r="F60" s="1">
+        <v>28.2</v>
+      </c>
+      <c r="G60" s="1">
+        <v>6.07</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1.3631</v>
+      </c>
+      <c r="I60" s="1">
+        <v>8.9399999999999993E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="16"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D61" s="2">
-        <v>50</v>
-      </c>
-      <c r="E61" s="2" t="s">
+      <c r="D61" s="1">
+        <v>50</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
-      <c r="B62" s="1">
+      <c r="F61" s="1">
+        <v>24.1</v>
+      </c>
+      <c r="G61" s="1">
+        <v>6.12</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1.1264000000000001</v>
+      </c>
+      <c r="I61" s="1">
+        <v>8.2699999999999996E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="16"/>
+      <c r="B62" s="13">
         <v>7</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D62" s="2">
-        <v>500</v>
-      </c>
-      <c r="E62" s="2" t="s">
+      <c r="D62" s="1">
+        <v>500</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="9" t="s">
+      <c r="F62" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="G62" s="1">
+        <v>6.29</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1.2453000000000001</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="16"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D63" s="2">
-        <v>500</v>
-      </c>
-      <c r="E63" s="2" t="s">
+      <c r="D63" s="1">
+        <v>500</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
-      <c r="B64" s="1">
+      <c r="F63" s="1">
+        <v>28</v>
+      </c>
+      <c r="G63" s="1">
+        <v>6.38</v>
+      </c>
+      <c r="H63" s="1">
+        <v>1.4756</v>
+      </c>
+      <c r="I63" s="1">
+        <v>9.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="16"/>
+      <c r="B64" s="13">
         <v>8</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C64" s="6">
         <v>36670</v>
       </c>
-      <c r="D64" s="2">
-        <v>500</v>
-      </c>
-      <c r="E64" s="10" t="s">
+      <c r="D64" s="1">
+        <v>500</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="11" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="16"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D65" s="2">
-        <v>500</v>
-      </c>
-      <c r="E65" s="10" t="s">
+      <c r="D65" s="1">
+        <v>500</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
-      <c r="B66" s="1">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="16"/>
+      <c r="B66" s="13">
         <v>9</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D66" s="2">
-        <v>500</v>
-      </c>
-      <c r="E66" s="2" t="s">
+      <c r="D66" s="1">
+        <v>500</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="9" t="s">
+      <c r="F66" s="1">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="G66" s="1">
+        <v>6.28</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1.8702000000000001</v>
+      </c>
+      <c r="I66" s="1">
+        <v>9.5500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="16"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D67" s="2">
-        <v>500</v>
-      </c>
-      <c r="E67" s="2" t="s">
+      <c r="D67" s="1">
+        <v>500</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
-      <c r="B68" s="1">
+      <c r="F67" s="1">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="G67" s="1">
+        <v>7.45</v>
+      </c>
+      <c r="H67" s="1">
+        <v>1.9762999999999999</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0.1487</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="16"/>
+      <c r="B68" s="13">
         <v>10</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D68" s="2">
-        <v>500</v>
-      </c>
-      <c r="E68" s="2" t="s">
+      <c r="D68" s="1">
+        <v>500</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="9" t="s">
+      <c r="F68" s="1">
+        <v>23.1</v>
+      </c>
+      <c r="G68" s="1">
+        <v>6.11</v>
+      </c>
+      <c r="H68" s="1">
+        <v>1.2890999999999999</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0.224</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="16"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D69" s="2">
-        <v>500</v>
-      </c>
-      <c r="E69" s="2" t="s">
+      <c r="D69" s="1">
+        <v>500</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
-      <c r="B70" s="1">
+      <c r="F69" s="1">
+        <v>26.8</v>
+      </c>
+      <c r="G69" s="1">
+        <v>5.83</v>
+      </c>
+      <c r="H69" s="1">
+        <v>1.3466</v>
+      </c>
+      <c r="I69" s="1">
+        <v>9.1300000000000006E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="16"/>
+      <c r="B70" s="13">
         <v>11</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D70" s="2">
-        <v>500</v>
-      </c>
-      <c r="E70" s="10" t="s">
+      <c r="D70" s="1">
+        <v>500</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="9" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="16"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D71" s="2">
-        <v>500</v>
-      </c>
-      <c r="E71" s="10" t="s">
+      <c r="D71" s="1">
+        <v>500</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
-      <c r="B72" s="1">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="16"/>
+      <c r="B72" s="13">
         <v>12</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D72" s="2">
-        <v>500</v>
-      </c>
-      <c r="E72" s="2" t="s">
+      <c r="D72" s="1">
+        <v>500</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="9" t="s">
+      <c r="F72" s="1">
+        <v>26</v>
+      </c>
+      <c r="G72" s="1">
+        <v>5.91</v>
+      </c>
+      <c r="H72" s="1">
+        <v>1.2692000000000001</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0.1009</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="17"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D73" s="2">
-        <v>500</v>
-      </c>
-      <c r="E73" s="2" t="s">
+      <c r="D73" s="1">
+        <v>500</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="F73" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="G73" s="1">
+        <v>5.77</v>
+      </c>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="B68:B69"/>
     <mergeCell ref="B70:B71"/>
     <mergeCell ref="B72:B73"/>
@@ -1774,17 +2566,6 @@
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.47244094488188981" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
